--- a/testreport/4 Confidence/uni_cat_sigtest/x4_Confidence_How_often_do_you_do_the_following_.xlsx
+++ b/testreport/4 Confidence/uni_cat_sigtest/x4_Confidence_How_often_do_you_do_the_following_.xlsx
@@ -402,7 +402,7 @@
         <v>7.3</v>
       </c>
       <c r="E2">
-        <v>0.228</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>6.5</v>
       </c>
       <c r="E3">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>4.4</v>
       </c>
       <c r="E4">
-        <v>0.6820000000000001</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="5">
@@ -465,7 +465,7 @@
         <v>6.5</v>
       </c>
       <c r="E5">
-        <v>0.334</v>
+        <v>0.372</v>
       </c>
     </row>
   </sheetData>
